--- a/Documents/Nucleo to Board coloured pinout.xlsx
+++ b/Documents/Nucleo to Board coloured pinout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\!ENG_PROJECT\engineering-project-v\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FSSTU04D\STU12\Home\Ddreise6630\!ENG_PROJECT\engineering-project-v\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B939A37A-E496-416C-A542-E8EF1B1ECBC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D787D22-4A5C-4FDB-8C13-C8D2AC64A66D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1E726284-65D2-40F9-8649-F8952536B159}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Dan's Board</t>
   </si>
@@ -111,6 +111,39 @@
   </si>
   <si>
     <t>RS232_Rx</t>
+  </si>
+  <si>
+    <t>CAN_RX</t>
+  </si>
+  <si>
+    <t>CAN_TX</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ENCODER_1</t>
+  </si>
+  <si>
+    <t>ENCODER_2</t>
+  </si>
+  <si>
+    <t>Limit_Switch_1</t>
+  </si>
+  <si>
+    <t>Limit_Switch_2</t>
+  </si>
+  <si>
+    <t>DC_1.1</t>
+  </si>
+  <si>
+    <t>DC_1.2</t>
+  </si>
+  <si>
+    <t>DC_2.1</t>
+  </si>
+  <si>
+    <t>DC_2.2</t>
   </si>
 </sst>
 </file>
@@ -156,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -432,6 +471,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299C4E1-746B-4993-871F-28222AED9D27}">
-  <dimension ref="C1:Z29"/>
+  <dimension ref="C1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +976,9 @@
       <c r="O7" s="4">
         <v>3</v>
       </c>
-      <c r="P7" s="13"/>
+      <c r="P7" s="51">
+        <v>3</v>
+      </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="5">
         <v>4</v>
@@ -974,7 +1026,9 @@
       <c r="O8" s="4">
         <v>5</v>
       </c>
-      <c r="P8" s="13"/>
+      <c r="P8" s="16">
+        <v>3</v>
+      </c>
       <c r="Q8" s="19"/>
       <c r="R8" s="5">
         <v>6</v>
@@ -1099,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="7">
         <v>12</v>
       </c>
@@ -1140,7 +1194,9 @@
       <c r="H12" s="6">
         <v>13</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="37">
+        <v>2</v>
+      </c>
       <c r="J12" s="14"/>
       <c r="K12" s="7">
         <v>14</v>
@@ -1148,7 +1204,9 @@
       <c r="O12" s="4">
         <v>13</v>
       </c>
-      <c r="P12" s="13"/>
+      <c r="P12" s="50">
+        <v>3</v>
+      </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="5">
         <v>14</v>
@@ -1158,7 +1216,9 @@
         <v>13</v>
       </c>
       <c r="U12" s="13"/>
-      <c r="V12" s="14"/>
+      <c r="V12" s="56">
+        <v>2</v>
+      </c>
       <c r="W12" s="7">
         <v>14</v>
       </c>
@@ -1182,7 +1242,9 @@
       <c r="H13" s="6">
         <v>15</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="59">
+        <v>1</v>
+      </c>
       <c r="J13" s="20">
         <v>1</v>
       </c>
@@ -1192,7 +1254,9 @@
       <c r="O13" s="4">
         <v>15</v>
       </c>
-      <c r="P13" s="13"/>
+      <c r="P13" s="60">
+        <v>2</v>
+      </c>
       <c r="Q13" s="14"/>
       <c r="R13" s="5">
         <v>16</v>
@@ -1218,7 +1282,6 @@
         <v>17</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
       <c r="F14" s="5">
         <v>18</v>
       </c>
@@ -1250,7 +1313,9 @@
         <v>17</v>
       </c>
       <c r="U14" s="23"/>
-      <c r="V14" s="19"/>
+      <c r="V14" s="56">
+        <v>1</v>
+      </c>
       <c r="W14" s="7">
         <v>18</v>
       </c>
@@ -1324,7 +1389,9 @@
       <c r="H16" s="6">
         <v>21</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="50">
+        <v>3</v>
+      </c>
       <c r="J16" s="14"/>
       <c r="K16" s="7">
         <v>22</v>
@@ -1332,7 +1399,9 @@
       <c r="O16" s="4">
         <v>21</v>
       </c>
-      <c r="P16" s="23"/>
+      <c r="P16" s="21">
+        <v>3</v>
+      </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="5">
         <v>22</v>
@@ -1366,7 +1435,9 @@
       <c r="H17" s="6">
         <v>23</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="60">
+        <v>2</v>
+      </c>
       <c r="J17" s="14"/>
       <c r="K17" s="7">
         <v>24</v>
@@ -1427,7 +1498,9 @@
       <c r="T18" s="6">
         <v>25</v>
       </c>
-      <c r="U18" s="23"/>
+      <c r="U18" s="37">
+        <v>2</v>
+      </c>
       <c r="V18" s="28"/>
       <c r="W18" s="7">
         <v>26</v>
@@ -1526,6 +1599,12 @@
       <c r="W20" s="7">
         <v>30</v>
       </c>
+      <c r="Y20" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
@@ -1562,6 +1641,12 @@
       <c r="W21" s="7">
         <v>32</v>
       </c>
+      <c r="Y21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C22" s="4">
@@ -1602,13 +1687,19 @@
       <c r="W22" s="7">
         <v>34</v>
       </c>
+      <c r="Y22" s="57">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
         <v>35</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="5">
         <v>36</v>
       </c>
@@ -1644,6 +1735,12 @@
       <c r="W23" s="7">
         <v>36</v>
       </c>
+      <c r="Y23" s="39">
+        <v>2</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="4">
@@ -1669,7 +1766,9 @@
       <c r="P24" s="29">
         <v>1</v>
       </c>
-      <c r="Q24" s="30"/>
+      <c r="Q24" s="30">
+        <v>1</v>
+      </c>
       <c r="R24" s="5">
         <v>38</v>
       </c>
@@ -1683,6 +1782,12 @@
       <c r="V24" s="18"/>
       <c r="W24" s="7">
         <v>38</v>
+      </c>
+      <c r="Y24" s="49">
+        <v>2</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1712,11 +1817,39 @@
       </c>
       <c r="V25" s="9"/>
       <c r="W25" s="10"/>
+      <c r="Y25" s="40">
+        <v>3</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Y26" s="57">
+        <v>2</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Y27" s="44">
+        <v>3</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="Y28" s="41">
+        <v>3</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D29" s="36" t="s">
@@ -1725,6 +1858,16 @@
       <c r="E29" s="35" t="s">
         <v>8</v>
       </c>
+      <c r="Y29" s="43">
+        <v>3</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1737,6 +1880,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DB1F523CC530C44BB87B953EC2E8361" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a60fda6cd6ab342f267b2a5945c18740">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6bb3237a-af2d-425e-a269-b1bf50cab29d" xmlns:ns4="3e0af245-5844-467d-8999-70a591b59cc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="772b783578299868aa6ab89439711b81" ns3:_="" ns4:_="">
     <xsd:import namespace="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
@@ -1959,22 +2117,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596ABAF4-4311-496C-97A7-162D9A55DD74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3e0af245-5844-467d-8999-70a591b59cc7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F57AA-3AF9-43BA-B87F-22E3B872CEF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11716F50-CCF7-4CB8-B555-01E08ED8D140}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1991,29 +2159,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F57AA-3AF9-43BA-B87F-22E3B872CEF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596ABAF4-4311-496C-97A7-162D9A55DD74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3e0af245-5844-467d-8999-70a591b59cc7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/Nucleo to Board coloured pinout.xlsx
+++ b/Documents/Nucleo to Board coloured pinout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FSSTU04D\STU12\Home\Ddreise6630\!ENG_PROJECT\engineering-project-v\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\!ENG_PROJECT\engineering-project-v\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D787D22-4A5C-4FDB-8C13-C8D2AC64A66D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA4FD3-9930-49BA-A0D7-0294E01B41E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1E726284-65D2-40F9-8649-F8952536B159}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="7170" xr2:uid="{1E726284-65D2-40F9-8649-F8952536B159}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Dan's Board</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>DC_2.2</t>
+  </si>
+  <si>
+    <t>3V</t>
   </si>
 </sst>
 </file>
@@ -465,23 +468,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,7 +808,7 @@
   <dimension ref="C1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,54 +827,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:26" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
     </row>
     <row r="2" spans="3:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
     </row>
     <row r="4" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="34" t="s">
@@ -1204,9 +1207,6 @@
       <c r="O12" s="4">
         <v>13</v>
       </c>
-      <c r="P12" s="50">
-        <v>3</v>
-      </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="5">
         <v>14</v>
@@ -1216,7 +1216,7 @@
         <v>13</v>
       </c>
       <c r="U12" s="13"/>
-      <c r="V12" s="56">
+      <c r="V12" s="53">
         <v>2</v>
       </c>
       <c r="W12" s="7">
@@ -1234,7 +1234,9 @@
         <v>15</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="F13" s="5">
         <v>16</v>
       </c>
@@ -1242,7 +1244,7 @@
       <c r="H13" s="6">
         <v>15</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="56">
         <v>1</v>
       </c>
       <c r="J13" s="20">
@@ -1254,10 +1256,9 @@
       <c r="O13" s="4">
         <v>15</v>
       </c>
-      <c r="P13" s="60">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="R13" s="5">
         <v>16</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>17</v>
       </c>
       <c r="U14" s="23"/>
-      <c r="V14" s="56">
+      <c r="V14" s="53">
         <v>1</v>
       </c>
       <c r="W14" s="7">
@@ -1435,7 +1436,7 @@
       <c r="H17" s="6">
         <v>23</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="57">
         <v>2</v>
       </c>
       <c r="J17" s="14"/>
@@ -1547,7 +1548,9 @@
         <v>27</v>
       </c>
       <c r="U19" s="23"/>
-      <c r="V19" s="19"/>
+      <c r="V19" s="50">
+        <v>3</v>
+      </c>
       <c r="W19" s="7">
         <v>28</v>
       </c>
@@ -1595,11 +1598,13 @@
         <v>29</v>
       </c>
       <c r="U20" s="23"/>
-      <c r="V20" s="19"/>
+      <c r="V20" s="57">
+        <v>2</v>
+      </c>
       <c r="W20" s="7">
         <v>30</v>
       </c>
-      <c r="Y20" s="58" t="s">
+      <c r="Y20" s="55" t="s">
         <v>29</v>
       </c>
       <c r="Z20" t="s">
@@ -1687,7 +1692,7 @@
       <c r="W22" s="7">
         <v>34</v>
       </c>
-      <c r="Y22" s="57">
+      <c r="Y22" s="54">
         <v>1</v>
       </c>
       <c r="Z22" t="s">
@@ -1825,7 +1830,7 @@
       </c>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="Y26" s="57">
+      <c r="Y26" s="54">
         <v>2</v>
       </c>
       <c r="Z26" t="s">
@@ -1880,21 +1885,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DB1F523CC530C44BB87B953EC2E8361" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a60fda6cd6ab342f267b2a5945c18740">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6bb3237a-af2d-425e-a269-b1bf50cab29d" xmlns:ns4="3e0af245-5844-467d-8999-70a591b59cc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="772b783578299868aa6ab89439711b81" ns3:_="" ns4:_="">
     <xsd:import namespace="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
@@ -2117,32 +2107,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596ABAF4-4311-496C-97A7-162D9A55DD74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3e0af245-5844-467d-8999-70a591b59cc7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F57AA-3AF9-43BA-B87F-22E3B872CEF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11716F50-CCF7-4CB8-B555-01E08ED8D140}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2159,4 +2139,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F57AA-3AF9-43BA-B87F-22E3B872CEF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596ABAF4-4311-496C-97A7-162D9A55DD74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3e0af245-5844-467d-8999-70a591b59cc7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/Nucleo to Board coloured pinout.xlsx
+++ b/Documents/Nucleo to Board coloured pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\!ENG_PROJECT\engineering-project-v\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DA4FD3-9930-49BA-A0D7-0294E01B41E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3996291A-8132-4DE2-B80F-DDD9F5912CED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="7170" xr2:uid="{1E726284-65D2-40F9-8649-F8952536B159}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Dan's Board</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>3V</t>
+  </si>
+  <si>
+    <t>change step2.1 to PA13</t>
+  </si>
+  <si>
+    <t>change STEP2_2 to PA15</t>
   </si>
 </sst>
 </file>
@@ -805,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299C4E1-746B-4993-871F-28222AED9D27}">
-  <dimension ref="C1:Z30"/>
+  <dimension ref="C1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +832,7 @@
     <col min="25" max="25" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:26" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C1" s="58" t="s">
         <v>10</v>
       </c>
@@ -851,7 +857,7 @@
       <c r="V1" s="58"/>
       <c r="W1" s="58"/>
     </row>
-    <row r="2" spans="3:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:29" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="59" t="s">
         <v>11</v>
       </c>
@@ -876,7 +882,7 @@
       <c r="V2" s="60"/>
       <c r="W2" s="60"/>
     </row>
-    <row r="4" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="34" t="s">
         <v>0</v>
       </c>
@@ -884,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -910,7 +916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>1</v>
       </c>
@@ -954,7 +960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>3</v>
       </c>
@@ -1003,8 +1009,11 @@
       <c r="Z7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AC7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
         <v>5</v>
       </c>
@@ -1053,8 +1062,11 @@
       <c r="Z8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AC8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <v>7</v>
       </c>
@@ -1100,7 +1112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -1142,7 +1154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>11</v>
       </c>
@@ -1184,7 +1196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C12" s="4">
         <v>13</v>
       </c>
@@ -1229,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
         <v>15</v>
       </c>
@@ -1278,7 +1290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
         <v>17</v>
       </c>
@@ -1327,7 +1339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
         <v>19</v>
       </c>
@@ -1375,7 +1387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C16" s="4">
         <v>21</v>
       </c>
@@ -1885,6 +1897,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DB1F523CC530C44BB87B953EC2E8361" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a60fda6cd6ab342f267b2a5945c18740">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6bb3237a-af2d-425e-a269-b1bf50cab29d" xmlns:ns4="3e0af245-5844-467d-8999-70a591b59cc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="772b783578299868aa6ab89439711b81" ns3:_="" ns4:_="">
     <xsd:import namespace="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
@@ -2107,22 +2134,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596ABAF4-4311-496C-97A7-162D9A55DD74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3e0af245-5844-467d-8999-70a591b59cc7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F57AA-3AF9-43BA-B87F-22E3B872CEF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11716F50-CCF7-4CB8-B555-01E08ED8D140}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2139,29 +2176,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F57AA-3AF9-43BA-B87F-22E3B872CEF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596ABAF4-4311-496C-97A7-162D9A55DD74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3e0af245-5844-467d-8999-70a591b59cc7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/Nucleo to Board coloured pinout.xlsx
+++ b/Documents/Nucleo to Board coloured pinout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\!ENG_PROJECT\engineering-project-v\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FSSTU04D\STU12\Home\Ddreise6630\!ENG_PROJECT\engineering-project-v\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3996291A-8132-4DE2-B80F-DDD9F5912CED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C81E7A-0BB3-41F3-80C0-F123E18DC58C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="7170" xr2:uid="{1E726284-65D2-40F9-8649-F8952536B159}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Dan's Board</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>3V</t>
-  </si>
-  <si>
-    <t>change step2.1 to PA13</t>
-  </si>
-  <si>
-    <t>change STEP2_2 to PA15</t>
   </si>
 </sst>
 </file>
@@ -811,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299C4E1-746B-4993-871F-28222AED9D27}">
-  <dimension ref="C1:AC30"/>
+  <dimension ref="C1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +826,7 @@
     <col min="25" max="25" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C1" s="58" t="s">
         <v>10</v>
       </c>
@@ -857,7 +851,7 @@
       <c r="V1" s="58"/>
       <c r="W1" s="58"/>
     </row>
-    <row r="2" spans="3:29" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="59" t="s">
         <v>11</v>
       </c>
@@ -882,7 +876,7 @@
       <c r="V2" s="60"/>
       <c r="W2" s="60"/>
     </row>
-    <row r="4" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="34" t="s">
         <v>0</v>
       </c>
@@ -890,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -916,7 +910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>1</v>
       </c>
@@ -960,7 +954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>3</v>
       </c>
@@ -1009,11 +1003,8 @@
       <c r="Z7" t="s">
         <v>14</v>
       </c>
-      <c r="AC7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="3:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
         <v>5</v>
       </c>
@@ -1062,11 +1053,8 @@
       <c r="Z8" t="s">
         <v>15</v>
       </c>
-      <c r="AC8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="3:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <v>7</v>
       </c>
@@ -1112,7 +1100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -1154,7 +1142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>11</v>
       </c>
@@ -1196,7 +1184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C12" s="4">
         <v>13</v>
       </c>
@@ -1241,7 +1229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
         <v>15</v>
       </c>
@@ -1290,7 +1278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
         <v>17</v>
       </c>
@@ -1339,7 +1327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
         <v>19</v>
       </c>
@@ -1387,7 +1375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C16" s="4">
         <v>21</v>
       </c>
@@ -1573,7 +1561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="4">
         <v>29</v>
       </c>
@@ -1609,7 +1597,9 @@
       <c r="T20" s="6">
         <v>29</v>
       </c>
-      <c r="U20" s="23"/>
+      <c r="U20" s="29">
+        <v>2</v>
+      </c>
       <c r="V20" s="57">
         <v>2</v>
       </c>
@@ -1653,7 +1643,9 @@
       <c r="T21" s="6">
         <v>31</v>
       </c>
-      <c r="U21" s="13"/>
+      <c r="U21" s="51">
+        <v>2</v>
+      </c>
       <c r="V21" s="14"/>
       <c r="W21" s="7">
         <v>32</v>
@@ -1745,9 +1737,6 @@
       <c r="T23" s="6">
         <v>35</v>
       </c>
-      <c r="U23" s="51">
-        <v>2</v>
-      </c>
       <c r="V23" s="14"/>
       <c r="W23" s="7">
         <v>36</v>
@@ -1792,9 +1781,6 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6">
         <v>37</v>
-      </c>
-      <c r="U24" s="29">
-        <v>2</v>
       </c>
       <c r="V24" s="18"/>
       <c r="W24" s="7">
@@ -1897,21 +1883,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DB1F523CC530C44BB87B953EC2E8361" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a60fda6cd6ab342f267b2a5945c18740">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6bb3237a-af2d-425e-a269-b1bf50cab29d" xmlns:ns4="3e0af245-5844-467d-8999-70a591b59cc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="772b783578299868aa6ab89439711b81" ns3:_="" ns4:_="">
     <xsd:import namespace="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
@@ -2134,32 +2105,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596ABAF4-4311-496C-97A7-162D9A55DD74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3e0af245-5844-467d-8999-70a591b59cc7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F57AA-3AF9-43BA-B87F-22E3B872CEF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11716F50-CCF7-4CB8-B555-01E08ED8D140}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2176,4 +2137,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F57AA-3AF9-43BA-B87F-22E3B872CEF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596ABAF4-4311-496C-97A7-162D9A55DD74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3e0af245-5844-467d-8999-70a591b59cc7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/Nucleo to Board coloured pinout.xlsx
+++ b/Documents/Nucleo to Board coloured pinout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FSSTU04D\STU12\Home\Ddreise6630\!ENG_PROJECT\engineering-project-v\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Fsstu04d\stu12\Home\Ddreise6630\!ENG_PROJECT\engineering-project-v\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C81E7A-0BB3-41F3-80C0-F123E18DC58C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47240C08-5AEE-46C1-8D9C-E423D5FA7870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="7170" xr2:uid="{1E726284-65D2-40F9-8649-F8952536B159}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Dan's Board</t>
   </si>
@@ -147,6 +148,9 @@
   </si>
   <si>
     <t>3V</t>
+  </si>
+  <si>
+    <t>incorrect location on justins nucleo</t>
   </si>
 </sst>
 </file>
@@ -805,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299C4E1-746B-4993-871F-28222AED9D27}">
-  <dimension ref="C1:Z30"/>
+  <dimension ref="C1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1219,9 @@
       <c r="T12" s="6">
         <v>13</v>
       </c>
-      <c r="U12" s="13"/>
+      <c r="U12" s="51">
+        <v>2</v>
+      </c>
       <c r="V12" s="53">
         <v>2</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>15</v>
       </c>
@@ -1266,7 +1272,9 @@
       <c r="T13" s="6">
         <v>15</v>
       </c>
-      <c r="U13" s="23"/>
+      <c r="U13" s="29">
+        <v>2</v>
+      </c>
       <c r="V13" s="19"/>
       <c r="W13" s="7">
         <v>16</v>
@@ -1423,7 +1431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
         <v>23</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C18" s="4">
         <v>25</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C19" s="4">
         <v>27</v>
       </c>
@@ -1561,7 +1569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C20" s="4">
         <v>29</v>
       </c>
@@ -1597,9 +1605,6 @@
       <c r="T20" s="6">
         <v>29</v>
       </c>
-      <c r="U20" s="29">
-        <v>2</v>
-      </c>
       <c r="V20" s="57">
         <v>2</v>
       </c>
@@ -1613,7 +1618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
         <v>31</v>
       </c>
@@ -1643,9 +1648,6 @@
       <c r="T21" s="6">
         <v>31</v>
       </c>
-      <c r="U21" s="51">
-        <v>2</v>
-      </c>
       <c r="V21" s="14"/>
       <c r="W21" s="7">
         <v>32</v>
@@ -1657,7 +1659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C22" s="4">
         <v>33</v>
       </c>
@@ -1703,7 +1705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
         <v>35</v>
       </c>
@@ -1748,7 +1750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="4">
         <v>37</v>
       </c>
@@ -1793,7 +1795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
         <v>2</v>
@@ -1827,15 +1829,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:28" x14ac:dyDescent="0.25">
       <c r="Y26" s="54">
         <v>2</v>
       </c>
       <c r="Z26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AB26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
       <c r="Y27" s="44">
         <v>3</v>
       </c>
@@ -1843,7 +1848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1854,7 +1859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D29" s="36" t="s">
         <v>7</v>
       </c>
@@ -1868,8 +1873,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="Y30" s="39"/>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="Y30" s="55"/>
       <c r="Z30" s="45"/>
     </row>
   </sheetData>

--- a/Documents/Nucleo to Board coloured pinout.xlsx
+++ b/Documents/Nucleo to Board coloured pinout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Fsstu04d\stu12\Home\Ddreise6630\!ENG_PROJECT\engineering-project-v\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\FSSTU04D\STU12\Home\Ddreise6630\!ENG_PROJECT\engineering-project-v\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47240C08-5AEE-46C1-8D9C-E423D5FA7870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17338CD6-5004-42AB-A69B-0E383054C30E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="7170" xr2:uid="{1E726284-65D2-40F9-8649-F8952536B159}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
   <si>
     <t>Dan's Board</t>
   </si>
@@ -151,6 +150,9 @@
   </si>
   <si>
     <t>incorrect location on justins nucleo</t>
+  </si>
+  <si>
+    <t>DAC_OUT</t>
   </si>
 </sst>
 </file>
@@ -811,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299C4E1-746B-4993-871F-28222AED9D27}">
   <dimension ref="C1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,7 +1642,9 @@
         <v>31</v>
       </c>
       <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
+      <c r="Q21" s="48">
+        <v>3</v>
+      </c>
       <c r="R21" s="5">
         <v>32</v>
       </c>
@@ -1874,8 +1878,12 @@
       </c>
     </row>
     <row r="30" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="45"/>
+      <c r="Y30" s="49">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="45" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1888,6 +1896,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DB1F523CC530C44BB87B953EC2E8361" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a60fda6cd6ab342f267b2a5945c18740">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6bb3237a-af2d-425e-a269-b1bf50cab29d" xmlns:ns4="3e0af245-5844-467d-8999-70a591b59cc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="772b783578299868aa6ab89439711b81" ns3:_="" ns4:_="">
     <xsd:import namespace="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
@@ -2110,22 +2133,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596ABAF4-4311-496C-97A7-162D9A55DD74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3e0af245-5844-467d-8999-70a591b59cc7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F57AA-3AF9-43BA-B87F-22E3B872CEF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11716F50-CCF7-4CB8-B555-01E08ED8D140}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2142,29 +2175,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577F57AA-3AF9-43BA-B87F-22E3B872CEF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{596ABAF4-4311-496C-97A7-162D9A55DD74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6bb3237a-af2d-425e-a269-b1bf50cab29d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3e0af245-5844-467d-8999-70a591b59cc7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>